--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.983672666666667</v>
+        <v>9.074329666666667</v>
       </c>
       <c r="H2">
-        <v>17.951018</v>
+        <v>27.222989</v>
       </c>
       <c r="I2">
-        <v>0.07597367825125773</v>
+        <v>0.1061942826727393</v>
       </c>
       <c r="J2">
-        <v>0.07597367825125773</v>
+        <v>0.1061942826727393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>141.4288764528971</v>
+        <v>17.41278866812122</v>
       </c>
       <c r="R2">
-        <v>1272.859888076074</v>
+        <v>156.715098013091</v>
       </c>
       <c r="S2">
-        <v>0.005187364678495226</v>
+        <v>0.0006928135351058298</v>
       </c>
       <c r="T2">
-        <v>0.005187364678495226</v>
+        <v>0.0006928135351058298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.983672666666667</v>
+        <v>9.074329666666667</v>
       </c>
       <c r="H3">
-        <v>17.951018</v>
+        <v>27.222989</v>
       </c>
       <c r="I3">
-        <v>0.07597367825125773</v>
+        <v>0.1061942826727393</v>
       </c>
       <c r="J3">
-        <v>0.07597367825125773</v>
+        <v>0.1061942826727393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>1084.770392005237</v>
+        <v>1645.070627698343</v>
       </c>
       <c r="R3">
-        <v>9762.933528047133</v>
+        <v>14805.63564928509</v>
       </c>
       <c r="S3">
-        <v>0.03978748722959341</v>
+        <v>0.06545345600851583</v>
       </c>
       <c r="T3">
-        <v>0.0397874872295934</v>
+        <v>0.06545345600851583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.983672666666667</v>
+        <v>9.074329666666667</v>
       </c>
       <c r="H4">
-        <v>17.951018</v>
+        <v>27.222989</v>
       </c>
       <c r="I4">
-        <v>0.07597367825125773</v>
+        <v>0.1061942826727393</v>
       </c>
       <c r="J4">
-        <v>0.07597367825125773</v>
+        <v>0.1061942826727393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>180.3660805491249</v>
+        <v>263.5881548019793</v>
       </c>
       <c r="R4">
-        <v>1623.294724942124</v>
+        <v>2372.293393217813</v>
       </c>
       <c r="S4">
-        <v>0.006615513457400371</v>
+        <v>0.01048754710236116</v>
       </c>
       <c r="T4">
-        <v>0.006615513457400371</v>
+        <v>0.01048754710236116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5.983672666666667</v>
+        <v>9.074329666666667</v>
       </c>
       <c r="H5">
-        <v>17.951018</v>
+        <v>27.222989</v>
       </c>
       <c r="I5">
-        <v>0.07597367825125773</v>
+        <v>0.1061942826727393</v>
       </c>
       <c r="J5">
-        <v>0.07597367825125773</v>
+        <v>0.1061942826727393</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>664.7893023465002</v>
+        <v>742.9562526899249</v>
       </c>
       <c r="R5">
-        <v>5983.103721118502</v>
+        <v>6686.606274209325</v>
       </c>
       <c r="S5">
-        <v>0.02438331288576872</v>
+        <v>0.02956046602675644</v>
       </c>
       <c r="T5">
-        <v>0.02438331288576872</v>
+        <v>0.02956046602675644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>171.998844</v>
       </c>
       <c r="I6">
-        <v>0.7279467289066431</v>
+        <v>0.6709510795864623</v>
       </c>
       <c r="J6">
-        <v>0.7279467289066431</v>
+        <v>0.6709510795864622</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>1355.109958561521</v>
+        <v>110.0165570258707</v>
       </c>
       <c r="R6">
-        <v>12195.98962705369</v>
+        <v>990.1490132328361</v>
       </c>
       <c r="S6">
-        <v>0.04970307133041762</v>
+        <v>0.004377297700328063</v>
       </c>
       <c r="T6">
-        <v>0.04970307133041762</v>
+        <v>0.004377297700328063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>171.998844</v>
       </c>
       <c r="I7">
-        <v>0.7279467289066431</v>
+        <v>0.6709510795864623</v>
       </c>
       <c r="J7">
-        <v>0.7279467289066431</v>
+        <v>0.6709510795864622</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>10393.79791331765</v>
@@ -883,10 +883,10 @@
         <v>93544.18121985887</v>
       </c>
       <c r="S7">
-        <v>0.3812263911247167</v>
+        <v>0.4135445512346047</v>
       </c>
       <c r="T7">
-        <v>0.3812263911247166</v>
+        <v>0.4135445512346046</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>171.998844</v>
       </c>
       <c r="I8">
-        <v>0.7279467289066431</v>
+        <v>0.6709510795864623</v>
       </c>
       <c r="J8">
-        <v>0.7279467289066431</v>
+        <v>0.6709510795864622</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>1728.189306659955</v>
+        <v>1665.388687408039</v>
       </c>
       <c r="R8">
-        <v>15553.70375993959</v>
+        <v>14988.49818667235</v>
       </c>
       <c r="S8">
-        <v>0.06338697154330228</v>
+        <v>0.06626186338324822</v>
       </c>
       <c r="T8">
-        <v>0.06338697154330228</v>
+        <v>0.06626186338324822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>171.998844</v>
       </c>
       <c r="I9">
-        <v>0.7279467289066431</v>
+        <v>0.6709510795864623</v>
       </c>
       <c r="J9">
-        <v>0.7279467289066431</v>
+        <v>0.6709510795864622</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>6369.721845700591</v>
+        <v>4694.106756801723</v>
       </c>
       <c r="R9">
-        <v>57327.49661130532</v>
+        <v>42246.96081121551</v>
       </c>
       <c r="S9">
-        <v>0.2336302949082066</v>
+        <v>0.1867673672682813</v>
       </c>
       <c r="T9">
-        <v>0.2336302949082066</v>
+        <v>0.1867673672682813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.22994666666666</v>
+        <v>18.86476133333333</v>
       </c>
       <c r="H10">
-        <v>45.68984</v>
+        <v>56.594284</v>
       </c>
       <c r="I10">
-        <v>0.1933720529672158</v>
+        <v>0.2207689020760095</v>
       </c>
       <c r="J10">
-        <v>0.1933720529672159</v>
+        <v>0.2207689020760095</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>359.9719378874577</v>
+        <v>36.19970999935511</v>
       </c>
       <c r="R10">
-        <v>3239.74744098712</v>
+        <v>325.797389994196</v>
       </c>
       <c r="S10">
-        <v>0.013203143252494</v>
+        <v>0.00144030054762992</v>
       </c>
       <c r="T10">
-        <v>0.013203143252494</v>
+        <v>0.00144030054762992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.22994666666666</v>
+        <v>18.86476133333333</v>
       </c>
       <c r="H11">
-        <v>45.68984</v>
+        <v>56.594284</v>
       </c>
       <c r="I11">
-        <v>0.1933720529672158</v>
+        <v>0.2207689020760095</v>
       </c>
       <c r="J11">
-        <v>0.1933720529672159</v>
+        <v>0.2207689020760095</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>2761.012531292462</v>
+        <v>3419.962235007269</v>
       </c>
       <c r="R11">
-        <v>24849.11278163216</v>
+        <v>30779.66011506542</v>
       </c>
       <c r="S11">
-        <v>0.1012691272173069</v>
+        <v>0.1360721806899107</v>
       </c>
       <c r="T11">
-        <v>0.1012691272173069</v>
+        <v>0.1360721806899107</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.22994666666666</v>
+        <v>18.86476133333333</v>
       </c>
       <c r="H12">
-        <v>45.68984</v>
+        <v>56.594284</v>
       </c>
       <c r="I12">
-        <v>0.1933720529672158</v>
+        <v>0.2207689020760095</v>
       </c>
       <c r="J12">
-        <v>0.1933720529672159</v>
+        <v>0.2207689020760095</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>459.0768814179021</v>
+        <v>547.9774058572032</v>
       </c>
       <c r="R12">
-        <v>4131.691932761119</v>
+        <v>4931.796652714828</v>
       </c>
       <c r="S12">
-        <v>0.0168381398417889</v>
+        <v>0.02180272045712557</v>
       </c>
       <c r="T12">
-        <v>0.0168381398417889</v>
+        <v>0.02180272045712557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.22994666666666</v>
+        <v>18.86476133333333</v>
       </c>
       <c r="H13">
-        <v>45.68984</v>
+        <v>56.594284</v>
       </c>
       <c r="I13">
-        <v>0.1933720529672158</v>
+        <v>0.2207689020760095</v>
       </c>
       <c r="J13">
-        <v>0.1933720529672159</v>
+        <v>0.2207689020760095</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>1692.055395294195</v>
+        <v>1544.54300239806</v>
       </c>
       <c r="R13">
-        <v>15228.49855764776</v>
+        <v>13900.88702158254</v>
       </c>
       <c r="S13">
-        <v>0.06206164265562605</v>
+        <v>0.06145370038134335</v>
       </c>
       <c r="T13">
-        <v>0.06206164265562606</v>
+        <v>0.06145370038134335</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2132453333333334</v>
+        <v>0.1782266666666667</v>
       </c>
       <c r="H14">
-        <v>0.6397360000000001</v>
+        <v>0.53468</v>
       </c>
       <c r="I14">
-        <v>0.002707539874883231</v>
+        <v>0.002085735664789058</v>
       </c>
       <c r="J14">
-        <v>0.002707539874883231</v>
+        <v>0.002085735664789059</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>5.040223552027556</v>
+        <v>0.3420002794355556</v>
       </c>
       <c r="R14">
-        <v>45.36201196824801</v>
+        <v>3.07800251492</v>
       </c>
       <c r="S14">
-        <v>0.0001848666148048998</v>
+        <v>1.36073794450119E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001848666148048998</v>
+        <v>1.36073794450119E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2132453333333334</v>
+        <v>0.1782266666666667</v>
       </c>
       <c r="H15">
-        <v>0.6397360000000001</v>
+        <v>0.53468</v>
       </c>
       <c r="I15">
-        <v>0.002707539874883231</v>
+        <v>0.002085735664789058</v>
       </c>
       <c r="J15">
-        <v>0.002707539874883231</v>
+        <v>0.002085735664789059</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>38.65890343934046</v>
+        <v>32.31042569270222</v>
       </c>
       <c r="R15">
-        <v>347.9301309540641</v>
+        <v>290.79383123432</v>
       </c>
       <c r="S15">
-        <v>0.001417941195887118</v>
+        <v>0.001285555155557431</v>
       </c>
       <c r="T15">
-        <v>0.001417941195887117</v>
+        <v>0.001285555155557432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2132453333333334</v>
+        <v>0.1782266666666667</v>
       </c>
       <c r="H16">
-        <v>0.6397360000000001</v>
+        <v>0.53468</v>
       </c>
       <c r="I16">
-        <v>0.002707539874883231</v>
+        <v>0.002085735664789058</v>
       </c>
       <c r="J16">
-        <v>0.002707539874883231</v>
+        <v>0.002085735664789059</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>6.427862470316445</v>
+        <v>5.177069814395556</v>
       </c>
       <c r="R16">
-        <v>57.850762232848</v>
+        <v>46.59362832956</v>
       </c>
       <c r="S16">
-        <v>0.0002357627916803094</v>
+        <v>0.000205983321107409</v>
       </c>
       <c r="T16">
-        <v>0.0002357627916803094</v>
+        <v>0.0002059833211074091</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2132453333333334</v>
+        <v>0.1782266666666667</v>
       </c>
       <c r="H17">
-        <v>0.6397360000000001</v>
+        <v>0.53468</v>
       </c>
       <c r="I17">
-        <v>0.002707539874883231</v>
+        <v>0.002085735664789058</v>
       </c>
       <c r="J17">
-        <v>0.002707539874883231</v>
+        <v>0.002085735664789059</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>23.69167303636711</v>
+        <v>14.59222017054222</v>
       </c>
       <c r="R17">
-        <v>213.225057327304</v>
+        <v>131.32998153488</v>
       </c>
       <c r="S17">
-        <v>0.000868969272510904</v>
+        <v>0.0005805898086792062</v>
       </c>
       <c r="T17">
-        <v>0.000868969272510904</v>
+        <v>0.0005805898086792063</v>
       </c>
     </row>
   </sheetData>
